--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-777435.5969212231</v>
+        <v>-780271.3707754599</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39.70122005611984</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="F2" t="n">
-        <v>187.52558716632</v>
+        <v>180.8244779223038</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="U2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -744,10 +744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>136.1081665067968</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846314</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>41.09572829916328</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>52.2159462544348</v>
       </c>
       <c r="T4" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>317.1433715903268</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>394.4494945062794</v>
+        <v>12.38174861329103</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>165.5536105009971</v>
       </c>
       <c r="I5" t="n">
-        <v>97.86446493206425</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>32.09996870867238</v>
       </c>
       <c r="S5" t="n">
-        <v>142.4580349854747</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>39.82615476828389</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7806503182287</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.14144075996052</v>
       </c>
       <c r="I6" t="n">
-        <v>45.34453187379252</v>
+        <v>45.71314871443816</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>48.64466599219163</v>
+        <v>48.64466599219152</v>
       </c>
       <c r="S6" t="n">
         <v>142.6536049262131</v>
       </c>
       <c r="T6" t="n">
-        <v>193.8652785608813</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.838561893805</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>34.36038850417994</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>118.3795591928337</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>131.3855447893291</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>284.1254924863438</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>27.29125764465872</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="S8" t="n">
-        <v>31.05567810087458</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>17.56628882406023</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721419</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>56.71107499148501</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>32.96992507729505</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>101.020245585514</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>359.551749875468</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
         <v>283.5630920045443</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081962</v>
+        <v>34.32106446352932</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>29.55527856873859</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108355</v>
+        <v>42.51029296932828</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>101.6969570046971</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>79.69108391904159</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>155.2435806730856</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>117.8112368377008</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634796</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>61.16269384155261</v>
       </c>
       <c r="D22" t="n">
-        <v>1.594095449514112</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>100.0416311957212</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>221.4418477627494</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>26.05480806223585</v>
+        <v>59.44001103519365</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3664,13 +3664,13 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261735</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002291</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4144,7 +4144,7 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308922</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
         <v>141.2394908002291</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808293</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>520.5803211678658</v>
+        <v>400.3029543659138</v>
       </c>
       <c r="C2" t="n">
-        <v>331.1605361513811</v>
+        <v>400.3029543659138</v>
       </c>
       <c r="D2" t="n">
-        <v>331.1605361513811</v>
+        <v>400.3029543659138</v>
       </c>
       <c r="E2" t="n">
-        <v>331.1605361513811</v>
+        <v>210.8831693494288</v>
       </c>
       <c r="F2" t="n">
-        <v>141.7407511348962</v>
+        <v>28.23218154912183</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678506</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058973</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644761</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123837</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985593</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652798</v>
+        <v>589.7227393823989</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652798</v>
+        <v>400.3029543659138</v>
       </c>
       <c r="U2" t="n">
-        <v>560.6825636487949</v>
+        <v>400.3029543659138</v>
       </c>
       <c r="V2" t="n">
-        <v>560.6825636487949</v>
+        <v>400.3029543659138</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487949</v>
+        <v>400.3029543659138</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487949</v>
+        <v>400.3029543659138</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487949</v>
+        <v>400.3029543659138</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161.5366049464206</v>
+        <v>168.0196101444724</v>
       </c>
       <c r="C3" t="n">
-        <v>161.5366049464206</v>
+        <v>168.0196101444724</v>
       </c>
       <c r="D3" t="n">
-        <v>161.5366049464206</v>
+        <v>168.0196101444724</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464206</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652798</v>
+        <v>525.6547321810256</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652798</v>
+        <v>525.6547321810256</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487949</v>
+        <v>525.6547321810256</v>
       </c>
       <c r="V3" t="n">
-        <v>371.2627786323101</v>
+        <v>525.6547321810256</v>
       </c>
       <c r="W3" t="n">
-        <v>329.7519419664886</v>
+        <v>525.6547321810256</v>
       </c>
       <c r="X3" t="n">
-        <v>329.7519419664886</v>
+        <v>336.2349471645405</v>
       </c>
       <c r="Y3" t="n">
-        <v>329.7519419664886</v>
+        <v>336.2349471645405</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230187</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170739</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396366</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="T4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="U4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="V4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="W4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="X4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>849.1896272662301</v>
+        <v>587.1966632241461</v>
       </c>
       <c r="C5" t="n">
-        <v>849.1896272662301</v>
+        <v>218.2341462837343</v>
       </c>
       <c r="D5" t="n">
-        <v>849.1896272662301</v>
+        <v>218.2341462837343</v>
       </c>
       <c r="E5" t="n">
-        <v>849.1896272662301</v>
+        <v>218.2341462837343</v>
       </c>
       <c r="F5" t="n">
-        <v>528.842787276001</v>
+        <v>211.2886455345309</v>
       </c>
       <c r="G5" t="n">
-        <v>130.4089544413753</v>
+        <v>198.7818287534288</v>
       </c>
       <c r="H5" t="n">
-        <v>130.4089544413753</v>
+        <v>31.55595956050243</v>
       </c>
       <c r="I5" t="n">
-        <v>31.55595956050235</v>
+        <v>31.55595956050243</v>
       </c>
       <c r="J5" t="n">
-        <v>97.7566430688882</v>
+        <v>97.75664306888814</v>
       </c>
       <c r="K5" t="n">
-        <v>247.7128251370695</v>
+        <v>247.7128251370699</v>
       </c>
       <c r="L5" t="n">
-        <v>470.6484908832549</v>
+        <v>470.648490883256</v>
       </c>
       <c r="M5" t="n">
-        <v>750.3768115740647</v>
+        <v>750.3768115740663</v>
       </c>
       <c r="N5" t="n">
-        <v>1039.24523731944</v>
+        <v>1039.245237319442</v>
       </c>
       <c r="O5" t="n">
-        <v>1298.680239159186</v>
+        <v>1298.680239159189</v>
       </c>
       <c r="P5" t="n">
-        <v>1485.601010129554</v>
+        <v>1485.601010129557</v>
       </c>
       <c r="Q5" t="n">
-        <v>1577.797978025118</v>
+        <v>1577.797978025121</v>
       </c>
       <c r="R5" t="n">
-        <v>1577.797978025118</v>
+        <v>1545.37376720828</v>
       </c>
       <c r="S5" t="n">
-        <v>1433.900972989285</v>
+        <v>1545.37376720828</v>
       </c>
       <c r="T5" t="n">
-        <v>1433.900972989285</v>
+        <v>1545.37376720828</v>
       </c>
       <c r="U5" t="n">
-        <v>1180.252514609801</v>
+        <v>1291.725308828797</v>
       </c>
       <c r="V5" t="n">
-        <v>849.1896272662301</v>
+        <v>960.662421485226</v>
       </c>
       <c r="W5" t="n">
-        <v>849.1896272662301</v>
+        <v>960.662421485226</v>
       </c>
       <c r="X5" t="n">
-        <v>849.1896272662301</v>
+        <v>587.1966632241461</v>
       </c>
       <c r="Y5" t="n">
-        <v>849.1896272662301</v>
+        <v>587.1966632241461</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>532.0649396485994</v>
+        <v>459.5402546978876</v>
       </c>
       <c r="C6" t="n">
-        <v>532.0649396485994</v>
+        <v>459.5402546978876</v>
       </c>
       <c r="D6" t="n">
-        <v>383.1305299873482</v>
+        <v>459.5402546978876</v>
       </c>
       <c r="E6" t="n">
-        <v>223.8930749818927</v>
+        <v>459.5402546978876</v>
       </c>
       <c r="F6" t="n">
-        <v>77.35851700877762</v>
+        <v>313.0056967247725</v>
       </c>
       <c r="G6" t="n">
-        <v>77.35851700877762</v>
+        <v>175.8535246861577</v>
       </c>
       <c r="H6" t="n">
-        <v>77.35851700877762</v>
+        <v>77.7308572518541</v>
       </c>
       <c r="I6" t="n">
-        <v>31.55595956050235</v>
+        <v>31.55595956050243</v>
       </c>
       <c r="J6" t="n">
-        <v>52.16678618101996</v>
+        <v>52.1667861810202</v>
       </c>
       <c r="K6" t="n">
-        <v>165.548796444573</v>
+        <v>165.5487964445736</v>
       </c>
       <c r="L6" t="n">
-        <v>364.327442608207</v>
+        <v>364.3274426082078</v>
       </c>
       <c r="M6" t="n">
-        <v>615.6496150704068</v>
+        <v>615.649615070408</v>
       </c>
       <c r="N6" t="n">
-        <v>888.0321825209644</v>
+        <v>888.0321825209661</v>
       </c>
       <c r="O6" t="n">
-        <v>1114.9892222856</v>
+        <v>1114.989222285602</v>
       </c>
       <c r="P6" t="n">
-        <v>1277.809189339513</v>
+        <v>1277.809189339515</v>
       </c>
       <c r="Q6" t="n">
-        <v>1336.730829002204</v>
+        <v>1336.730829002206</v>
       </c>
       <c r="R6" t="n">
-        <v>1287.594802747464</v>
+        <v>1287.594802747467</v>
       </c>
       <c r="S6" t="n">
-        <v>1143.500252316946</v>
+        <v>1143.500252316949</v>
       </c>
       <c r="T6" t="n">
-        <v>947.6767386190861</v>
+        <v>1143.500252316949</v>
       </c>
       <c r="U6" t="n">
-        <v>947.6767386190861</v>
+        <v>915.380492828257</v>
       </c>
       <c r="V6" t="n">
-        <v>947.6767386190861</v>
+        <v>915.380492828257</v>
       </c>
       <c r="W6" t="n">
-        <v>947.6767386190861</v>
+        <v>915.380492828257</v>
       </c>
       <c r="X6" t="n">
-        <v>739.8252384135533</v>
+        <v>707.5289926227242</v>
       </c>
       <c r="Y6" t="n">
-        <v>532.0649396485994</v>
+        <v>499.7686938577703</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.26342269603765</v>
+        <v>31.55595956050243</v>
       </c>
       <c r="C7" t="n">
-        <v>66.26342269603765</v>
+        <v>31.55595956050243</v>
       </c>
       <c r="D7" t="n">
-        <v>66.26342269603765</v>
+        <v>31.55595956050243</v>
       </c>
       <c r="E7" t="n">
-        <v>66.26342269603765</v>
+        <v>31.55595956050243</v>
       </c>
       <c r="F7" t="n">
-        <v>66.26342269603765</v>
+        <v>31.55595956050243</v>
       </c>
       <c r="G7" t="n">
-        <v>66.26342269603765</v>
+        <v>31.55595956050243</v>
       </c>
       <c r="H7" t="n">
-        <v>66.26342269603765</v>
+        <v>31.55595956050243</v>
       </c>
       <c r="I7" t="n">
-        <v>66.26342269603765</v>
+        <v>31.55595956050243</v>
       </c>
       <c r="J7" t="n">
-        <v>31.55595956050235</v>
+        <v>31.55595956050243</v>
       </c>
       <c r="K7" t="n">
-        <v>54.5383712872107</v>
+        <v>54.53837128721095</v>
       </c>
       <c r="L7" t="n">
-        <v>113.8537434321898</v>
+        <v>113.8537434321902</v>
       </c>
       <c r="M7" t="n">
-        <v>179.6517697443916</v>
+        <v>179.6517697443923</v>
       </c>
       <c r="N7" t="n">
-        <v>251.7427919626574</v>
+        <v>251.7427919626582</v>
       </c>
       <c r="O7" t="n">
-        <v>298.0174303336736</v>
+        <v>298.0174303336746</v>
       </c>
       <c r="P7" t="n">
-        <v>318.5514065164041</v>
+        <v>318.5514065164053</v>
       </c>
       <c r="Q7" t="n">
-        <v>318.5514065164041</v>
+        <v>318.5514065164053</v>
       </c>
       <c r="R7" t="n">
-        <v>198.9760942004104</v>
+        <v>318.5514065164053</v>
       </c>
       <c r="S7" t="n">
-        <v>66.26342269603765</v>
+        <v>318.5514065164053</v>
       </c>
       <c r="T7" t="n">
-        <v>66.26342269603765</v>
+        <v>318.5514065164053</v>
       </c>
       <c r="U7" t="n">
-        <v>66.26342269603765</v>
+        <v>31.55595956050243</v>
       </c>
       <c r="V7" t="n">
-        <v>66.26342269603765</v>
+        <v>31.55595956050243</v>
       </c>
       <c r="W7" t="n">
-        <v>66.26342269603765</v>
+        <v>31.55595956050243</v>
       </c>
       <c r="X7" t="n">
-        <v>66.26342269603765</v>
+        <v>31.55595956050243</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.26342269603765</v>
+        <v>31.55595956050243</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>466.3457425838894</v>
+        <v>1231.021119953477</v>
       </c>
       <c r="C8" t="n">
-        <v>466.3457425838894</v>
+        <v>1231.021119953477</v>
       </c>
       <c r="D8" t="n">
-        <v>466.3457425838894</v>
+        <v>872.7554213467267</v>
       </c>
       <c r="E8" t="n">
-        <v>466.3457425838894</v>
+        <v>486.9671687484825</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428181</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301905</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232728</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711882</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578732</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545599</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172451</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2137.090455085592</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>1926.916457237508</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>1926.916457237508</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V8" t="n">
-        <v>1595.853569893937</v>
+        <v>1583.789775223591</v>
       </c>
       <c r="W8" t="n">
-        <v>1243.084914623823</v>
+        <v>1231.021119953477</v>
       </c>
       <c r="X8" t="n">
-        <v>1243.084914623823</v>
+        <v>1231.021119953477</v>
       </c>
       <c r="Y8" t="n">
-        <v>852.9455826480112</v>
+        <v>1231.021119953477</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>349.1412095166637</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C9" t="n">
-        <v>349.1412095166637</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166637</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112082</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562345</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504525</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104405</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789504</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128149</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.75304868905</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972668</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>1676.954384839855</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T9" t="n">
-        <v>1482.244063313831</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="U9" t="n">
-        <v>1254.142473447095</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="V9" t="n">
-        <v>1018.990365215352</v>
+        <v>1360.121530242639</v>
       </c>
       <c r="W9" t="n">
-        <v>764.7530084871505</v>
+        <v>1105.884173514438</v>
       </c>
       <c r="X9" t="n">
-        <v>556.9015082816177</v>
+        <v>898.032673308905</v>
       </c>
       <c r="Y9" t="n">
-        <v>349.1412095166637</v>
+        <v>690.2723745439512</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2591440360035</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2591440360035</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2591440360035</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2591440360035</v>
+        <v>486.9863924170687</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809315</v>
+        <v>340.0964449191583</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809315</v>
+        <v>171.9636155141767</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809315</v>
+        <v>171.9636155141767</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809315</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981551</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018947</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.141159492734</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377471</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033672</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W10" t="n">
-        <v>418.2486949340208</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X10" t="n">
-        <v>190.2591440360035</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.2591440360035</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2266.424947555045</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C11" t="n">
-        <v>1897.462430614633</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D11" t="n">
-        <v>1539.196732007883</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E11" t="n">
-        <v>1153.408479409639</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F11" t="n">
-        <v>742.4225746200325</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
         <v>379.2389888872365</v>
@@ -5066,25 +5066,25 @@
         <v>4640.581161304027</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070876</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750194</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U11" t="n">
-        <v>4100.461420469744</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V11" t="n">
-        <v>3769.398533126173</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W11" t="n">
-        <v>3416.629877856059</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X11" t="n">
-        <v>3043.164119594979</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y11" t="n">
-        <v>2653.024787619167</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>92.81162322608054</v>
       </c>
       <c r="K12" t="n">
-        <v>197.7841868637015</v>
+        <v>301.0525042748304</v>
       </c>
       <c r="L12" t="n">
-        <v>688.5165197074529</v>
+        <v>791.7848371185818</v>
       </c>
       <c r="M12" t="n">
-        <v>1280.534873959581</v>
+        <v>1383.80319137071</v>
       </c>
       <c r="N12" t="n">
-        <v>1902.630837358917</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O12" t="n">
-        <v>1902.630837358917</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P12" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q12" t="n">
         <v>2552.77562977024</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>494.0589900220732</v>
+        <v>700.6271100258032</v>
       </c>
       <c r="C13" t="n">
-        <v>494.0589900220732</v>
+        <v>531.6909270978963</v>
       </c>
       <c r="D13" t="n">
-        <v>494.0589900220732</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="E13" t="n">
-        <v>464.2051732859736</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="F13" t="n">
-        <v>317.3152257880633</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="G13" t="n">
-        <v>317.3152257880633</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H13" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I13" t="n">
         <v>92.81162322608054</v>
@@ -5221,28 +5221,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.516429368669</v>
+        <v>2385.436084542159</v>
       </c>
       <c r="S13" t="n">
-        <v>2177.346239107599</v>
+        <v>2202.265894281089</v>
       </c>
       <c r="T13" t="n">
-        <v>1957.667456821981</v>
+        <v>1982.587111995472</v>
       </c>
       <c r="U13" t="n">
-        <v>1668.591243136708</v>
+        <v>1693.510898310198</v>
       </c>
       <c r="V13" t="n">
-        <v>1413.906754930821</v>
+        <v>1438.826410104311</v>
       </c>
       <c r="W13" t="n">
-        <v>1124.48958489386</v>
+        <v>1149.409240067351</v>
       </c>
       <c r="X13" t="n">
-        <v>896.5000339958431</v>
+        <v>921.4196891693333</v>
       </c>
       <c r="Y13" t="n">
-        <v>675.7074548523129</v>
+        <v>700.6271100258032</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,28 +5270,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.584050252739</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>95.584050252739</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L15" t="n">
-        <v>590.9096564684976</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.288144095049</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>1815.886107649656</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277355</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>196.5408620426154</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5470,16 +5470,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1607.889809492038</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1318.472639455077</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1090.48308855706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>869.6905094135296</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,25 +5507,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438179</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>615.644930552589</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y19" t="n">
-        <v>1016.58045691144</v>
+        <v>797.2933953828287</v>
       </c>
     </row>
     <row r="20">
@@ -5744,25 +5744,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438179</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.2707707770319</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C22" t="n">
-        <v>634.334587849125</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
         <v>484.8112968429803</v>
@@ -5905,16 +5905,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648819</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072716</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.7772127656159</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>782.841029837709</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>2126.309465880251</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1871.624977674364</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1582.207807637403</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1354.218256739386</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.425677595856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2311.700279152292</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2544.961939527175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>868.6673633290469</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>699.73118040114</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1753.782446406721</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1499.097958200834</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1499.097958200834</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>1271.108407302817</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>1050.315828159287</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6467,13 +6467,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474262</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E31" t="n">
-        <v>261.8464821474262</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F31" t="n">
-        <v>261.8464821474262</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,22 +6835,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7154,16 +7154,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7312,10 +7312,10 @@
         <v>782.5512955656824</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580113</v>
@@ -7403,46 +7403,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7558,22 +7558,22 @@
         <v>411.221455958012</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7628,13 +7628,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,28 +7643,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7731,22 +7731,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
@@ -7828,25 +7828,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>343.0326216073607</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>90.35802078917339</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>194.4047829059416</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753915</v>
+        <v>226.0515678194076</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>77.0817190166637</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988656</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871038</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>85.18632727080517</v>
       </c>
     </row>
     <row r="3">
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>50.29152613728957</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>50.29152613729029</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>116.8786840778306</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>24.67045862175527</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>38.59775584152679</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>172.4465594047864</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>70.46607471595152</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>100.7734165143939</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="D22" t="n">
-        <v>147.0213775686983</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>186.1428431935229</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>64.74262662649471</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>139.469330230033</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25552,13 +25552,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.810729923425242e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-7.531752999057062e-13</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>-7.531752999057062e-13</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>-9.805489753489383e-13</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1184391.280745793</v>
+        <v>1184391.280745792</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1184391.280745792</v>
+        <v>1184391.280745793</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1184391.280745793</v>
+        <v>1184391.280745792</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1184391.280745792</v>
+        <v>1184391.280745793</v>
       </c>
     </row>
     <row r="12">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>208611.1685410618</v>
+        <v>208611.1685410617</v>
       </c>
       <c r="C2" t="n">
+        <v>246312.5309592852</v>
+      </c>
+      <c r="D2" t="n">
         <v>246312.530959285</v>
       </c>
-      <c r="D2" t="n">
-        <v>246312.5309592849</v>
-      </c>
       <c r="E2" t="n">
-        <v>240803.9314914093</v>
+        <v>240803.9314914092</v>
       </c>
       <c r="F2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="G2" t="n">
         <v>242143.9799070018</v>
@@ -26332,7 +26332,7 @@
         <v>242143.9799070018</v>
       </c>
       <c r="I2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="J2" t="n">
         <v>242143.9799070018</v>
@@ -26341,16 +26341,16 @@
         <v>242143.9799070018</v>
       </c>
       <c r="L2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="M2" t="n">
         <v>246312.5309592848</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.5309592847</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="O2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.530959285</v>
       </c>
       <c r="P2" t="n">
         <v>246312.5309592847</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208458</v>
       </c>
       <c r="C3" t="n">
-        <v>229052.9846381946</v>
+        <v>229052.9846381953</v>
       </c>
       <c r="D3" t="n">
-        <v>154732.1099795083</v>
+        <v>154732.1099795061</v>
       </c>
       <c r="E3" t="n">
-        <v>589710.8045858945</v>
+        <v>589710.8045858955</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504091</v>
+        <v>11452.26311504116</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>49064.94472854471</v>
       </c>
       <c r="K3" t="n">
-        <v>53255.59218427062</v>
+        <v>53255.59218427086</v>
       </c>
       <c r="L3" t="n">
-        <v>37372.79949869293</v>
+        <v>37372.79949869238</v>
       </c>
       <c r="M3" t="n">
-        <v>173443.3492480469</v>
+        <v>173443.3492480472</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704674</v>
+        <v>3077.01735570473</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206807.5769261785</v>
+        <v>206807.5769261784</v>
       </c>
       <c r="C4" t="n">
-        <v>217644.1106371142</v>
+        <v>217644.1106371139</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888973</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>14820.16342064207</v>
+        <v>14820.16342064201</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>22817.55530496084</v>
+        <v>22817.55530496086</v>
       </c>
       <c r="N4" t="n">
-        <v>22817.55530496085</v>
+        <v>22817.55530496086</v>
       </c>
       <c r="O4" t="n">
-        <v>22817.55530496082</v>
+        <v>22817.55530496088</v>
       </c>
       <c r="P4" t="n">
         <v>22817.55530496086</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>73449.92183345645</v>
+        <v>73449.92183345652</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587233</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>100142.1285138384</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-646539.1113175757</v>
+        <v>-646853.2893377279</v>
       </c>
       <c r="C6" t="n">
-        <v>-273834.4861494802</v>
+        <v>-273834.4861494804</v>
       </c>
       <c r="D6" t="n">
-        <v>-167821.6509649931</v>
+        <v>-167821.6509649911</v>
       </c>
       <c r="E6" t="n">
-        <v>-463869.1650289657</v>
+        <v>-463915.0700245324</v>
       </c>
       <c r="F6" t="n">
-        <v>114742.4909261864</v>
+        <v>114707.7530007505</v>
       </c>
       <c r="G6" t="n">
-        <v>126194.7540412273</v>
+        <v>126160.0161157917</v>
       </c>
       <c r="H6" t="n">
-        <v>126194.7540412273</v>
+        <v>126160.0161157916</v>
       </c>
       <c r="I6" t="n">
-        <v>126194.7540412272</v>
+        <v>126160.0161157916</v>
       </c>
       <c r="J6" t="n">
-        <v>77129.80931268264</v>
+        <v>77095.07138724695</v>
       </c>
       <c r="K6" t="n">
-        <v>72939.16185695674</v>
+        <v>72904.42393152075</v>
       </c>
       <c r="L6" t="n">
-        <v>88821.95454253447</v>
+        <v>88787.21661709921</v>
       </c>
       <c r="M6" t="n">
-        <v>-53112.48944763839</v>
+        <v>-53112.48944763867</v>
       </c>
       <c r="N6" t="n">
         <v>117253.8424447038</v>
       </c>
       <c r="O6" t="n">
-        <v>120330.8598004089</v>
+        <v>120330.8598004087</v>
       </c>
       <c r="P6" t="n">
         <v>120330.8598004085</v>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.720839728281323e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.720839728281323e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.720839728281323e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.720839728281323e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.720839728281323e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>726.5959893337003</v>
+        <v>726.5959893337011</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376851</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>394.4494945062794</v>
+        <v>394.4494945062803</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261643</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
         <v>1160.145290326007</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.720839728281323e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>178.1260484207958</v>
+        <v>178.1260484207962</v>
       </c>
       <c r="D3" t="n">
-        <v>127.1146752039848</v>
+        <v>127.114675203983</v>
       </c>
       <c r="E3" t="n">
-        <v>504.3303841787007</v>
+        <v>504.3303841787017</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625287693</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>206.9239073399594</v>
+        <v>206.9239073399601</v>
       </c>
       <c r="D4" t="n">
-        <v>147.665462219885</v>
+        <v>147.6654622198829</v>
       </c>
       <c r="E4" t="n">
-        <v>618.0303335998424</v>
+        <v>618.0303335998435</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>206.9239073399592</v>
+        <v>206.9239073399601</v>
       </c>
       <c r="L4" t="n">
-        <v>147.6654622198851</v>
+        <v>147.6654622198829</v>
       </c>
       <c r="M4" t="n">
-        <v>618.0303335998424</v>
+        <v>618.0303335998435</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.720839728281323e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
-        <v>206.9239073399594</v>
+        <v>206.9239073399601</v>
       </c>
       <c r="L4" t="n">
-        <v>147.665462219885</v>
+        <v>147.6654622198829</v>
       </c>
       <c r="M4" t="n">
-        <v>618.0303335998424</v>
+        <v>618.0303335998435</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>87.3892838155142</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>301.0516113852484</v>
       </c>
     </row>
     <row r="3">
@@ -27464,10 +27464,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>21.53691394860414</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27476,10 +27476,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377098</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310532</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>210.5992548617563</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715727</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27552,16 +27552,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825412</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,19 +27576,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.6860405515972</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>154.5643095410614</v>
       </c>
       <c r="T4" t="n">
-        <v>171.5037272356657</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>89.73267415138463</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>17.93225410701164</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.5602245247571</v>
+        <v>144.0066140237599</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>97.86446493206412</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>32.09996870867258</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>142.4580349854746</v>
       </c>
       <c r="T5" t="n">
         <v>210.3092206463091</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>126.7070288815835</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7806503182287</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.14144075996053</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3686168406457</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,10 +27746,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.8652785608813</v>
       </c>
       <c r="U6" t="n">
-        <v>225.838561893805</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27792,10 +27792,10 @@
         <v>150.5778138587779</v>
       </c>
       <c r="I7" t="n">
-        <v>116.0475317679816</v>
+        <v>116.0475317679815</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>34.36038850417984</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>41.78900724005709</v>
+        <v>41.78900724005697</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>118.3795591928337</v>
       </c>
       <c r="S7" t="n">
-        <v>69.79688092710708</v>
+        <v>201.1824257164361</v>
       </c>
       <c r="T7" t="n">
         <v>222.3472268875136</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2475608985237</v>
+        <v>2.122068412179829</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>379.5847880970527</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708285</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>99.75763060837576</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>148.9668948258071</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904878</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,13 +27980,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>80.86393890181418</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>113.4640375692741</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923912</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425539</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>185.502752751077</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.310333910341483e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31215,31 +31215,31 @@
         <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N4" t="n">
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.920988901844019</v>
+        <v>2.920988901844022</v>
       </c>
       <c r="H5" t="n">
-        <v>29.91457759101007</v>
+        <v>29.9145775910101</v>
       </c>
       <c r="I5" t="n">
-        <v>112.6114246383417</v>
+        <v>112.6114246383418</v>
       </c>
       <c r="J5" t="n">
-        <v>247.9152818078841</v>
+        <v>247.9152818078843</v>
       </c>
       <c r="K5" t="n">
-        <v>371.5607420229414</v>
+        <v>371.5607420229419</v>
       </c>
       <c r="L5" t="n">
-        <v>460.9539561277505</v>
+        <v>460.953956127751</v>
       </c>
       <c r="M5" t="n">
-        <v>512.900092510919</v>
+        <v>512.9000925109195</v>
       </c>
       <c r="N5" t="n">
-        <v>521.1993522282834</v>
+        <v>521.1993522282839</v>
       </c>
       <c r="O5" t="n">
-        <v>492.1537688355719</v>
+        <v>492.1537688355724</v>
       </c>
       <c r="P5" t="n">
-        <v>420.0418553212976</v>
+        <v>420.041855321298</v>
       </c>
       <c r="Q5" t="n">
-        <v>315.4339402740085</v>
+        <v>315.4339402740089</v>
       </c>
       <c r="R5" t="n">
-        <v>183.4855691054595</v>
+        <v>183.4855691054597</v>
       </c>
       <c r="S5" t="n">
-        <v>66.56203460077066</v>
+        <v>66.56203460077073</v>
       </c>
       <c r="T5" t="n">
-        <v>12.7866289178222</v>
+        <v>12.78662891782222</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2336791121475215</v>
+        <v>0.2336791121475217</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.562866844981922</v>
+        <v>1.562866844981923</v>
       </c>
       <c r="H6" t="n">
-        <v>15.09400347653593</v>
+        <v>15.09400347653595</v>
       </c>
       <c r="I6" t="n">
-        <v>53.80923128556178</v>
+        <v>53.80923128556184</v>
       </c>
       <c r="J6" t="n">
-        <v>147.6566434550683</v>
+        <v>147.6566434550685</v>
       </c>
       <c r="K6" t="n">
-        <v>252.3687220688571</v>
+        <v>252.3687220688573</v>
       </c>
       <c r="L6" t="n">
-        <v>339.3408910562721</v>
+        <v>339.3408910562724</v>
       </c>
       <c r="M6" t="n">
-        <v>395.9948141868666</v>
+        <v>395.9948141868671</v>
       </c>
       <c r="N6" t="n">
-        <v>406.4756185990481</v>
+        <v>406.4756185990486</v>
       </c>
       <c r="O6" t="n">
-        <v>371.8457795602382</v>
+        <v>371.8457795602386</v>
       </c>
       <c r="P6" t="n">
-        <v>298.4390206001005</v>
+        <v>298.4390206001008</v>
       </c>
       <c r="Q6" t="n">
-        <v>199.4985818261134</v>
+        <v>199.4985818261136</v>
       </c>
       <c r="R6" t="n">
-        <v>97.03483797177232</v>
+        <v>97.03483797177243</v>
       </c>
       <c r="S6" t="n">
-        <v>29.02956617762471</v>
+        <v>29.02956617762474</v>
       </c>
       <c r="T6" t="n">
-        <v>6.299450133940287</v>
+        <v>6.299450133940294</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1028201871698633</v>
+        <v>0.1028201871698634</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.310255062732902</v>
+        <v>1.310255062732903</v>
       </c>
       <c r="H7" t="n">
-        <v>11.64935864866163</v>
+        <v>11.64935864866164</v>
       </c>
       <c r="I7" t="n">
-        <v>39.40294315927674</v>
+        <v>39.40294315927679</v>
       </c>
       <c r="J7" t="n">
-        <v>92.63503293521617</v>
+        <v>92.63503293521627</v>
       </c>
       <c r="K7" t="n">
-        <v>152.2278154702408</v>
+        <v>152.227815470241</v>
       </c>
       <c r="L7" t="n">
-        <v>194.799193599399</v>
+        <v>194.7991935993992</v>
       </c>
       <c r="M7" t="n">
-        <v>205.388436788213</v>
+        <v>205.3884367882132</v>
       </c>
       <c r="N7" t="n">
-        <v>200.5047588271178</v>
+        <v>200.504758827118</v>
       </c>
       <c r="O7" t="n">
-        <v>185.1985974124652</v>
+        <v>185.1985974124654</v>
       </c>
       <c r="P7" t="n">
-        <v>158.4693941327138</v>
+        <v>158.469394132714</v>
       </c>
       <c r="Q7" t="n">
-        <v>109.7159943893888</v>
+        <v>109.7159943893889</v>
       </c>
       <c r="R7" t="n">
-        <v>58.91383218433575</v>
+        <v>58.91383218433581</v>
       </c>
       <c r="S7" t="n">
-        <v>22.83417232053611</v>
+        <v>22.83417232053614</v>
       </c>
       <c r="T7" t="n">
-        <v>5.598362540767853</v>
+        <v>5.598362540767859</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07146845796724929</v>
+        <v>0.07146845796724936</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933231</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409261</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258717</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840433</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934787</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839016</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.253840119091</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662303</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.61767849284</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141322</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699499</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464135</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095122</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913581</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616803</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730384</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152849</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.898513388451</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475636</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349509</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867498</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053863</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057852</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017481</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420142</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595399</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099895</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451905</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153097</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735642</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978883</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>243.8743315376125</v>
+        <v>348.1857632660256</v>
       </c>
       <c r="L12" t="n">
         <v>634.2436048745725</v>
@@ -31853,13 +31853,13 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>381.6404378718165</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>186.6878763515716</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32312,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.267838362267</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32549,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362267</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>153.8606640989137</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.544175081759</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646086</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061163</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520835</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400609</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>66.86937728119779</v>
+        <v>66.86937728119804</v>
       </c>
       <c r="K5" t="n">
-        <v>151.4708909779609</v>
+        <v>151.4708909779613</v>
       </c>
       <c r="L5" t="n">
-        <v>225.1875411577632</v>
+        <v>225.1875411577637</v>
       </c>
       <c r="M5" t="n">
-        <v>282.5538592836463</v>
+        <v>282.5538592836468</v>
       </c>
       <c r="N5" t="n">
-        <v>291.7862886316925</v>
+        <v>291.786288631693</v>
       </c>
       <c r="O5" t="n">
-        <v>262.0555574138851</v>
+        <v>262.0555574138857</v>
       </c>
       <c r="P5" t="n">
-        <v>188.808859566028</v>
+        <v>188.8088595660285</v>
       </c>
       <c r="Q5" t="n">
-        <v>93.12825039955905</v>
+        <v>93.12825039955939</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>20.81901678840163</v>
+        <v>20.8190167884018</v>
       </c>
       <c r="K6" t="n">
-        <v>114.5272830944981</v>
+        <v>114.5272830944983</v>
       </c>
       <c r="L6" t="n">
-        <v>200.7865112763979</v>
+        <v>200.7865112763982</v>
       </c>
       <c r="M6" t="n">
-        <v>253.8607802648483</v>
+        <v>253.8607802648488</v>
       </c>
       <c r="N6" t="n">
-        <v>275.1339065157148</v>
+        <v>275.1339065157152</v>
       </c>
       <c r="O6" t="n">
-        <v>229.2495351157937</v>
+        <v>229.2495351157941</v>
       </c>
       <c r="P6" t="n">
-        <v>164.4646131857702</v>
+        <v>164.4646131857705</v>
       </c>
       <c r="Q6" t="n">
-        <v>59.51680774009185</v>
+        <v>59.51680774009208</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>23.2145572997054</v>
+        <v>23.21455729970558</v>
       </c>
       <c r="L7" t="n">
-        <v>59.91451731816068</v>
+        <v>59.91451731816088</v>
       </c>
       <c r="M7" t="n">
-        <v>66.46265284060794</v>
+        <v>66.46265284060814</v>
       </c>
       <c r="N7" t="n">
-        <v>72.8192143618846</v>
+        <v>72.8192143618848</v>
       </c>
       <c r="O7" t="n">
-        <v>46.74205896062239</v>
+        <v>46.74205896062259</v>
       </c>
       <c r="P7" t="n">
-        <v>20.74139008356622</v>
+        <v>20.74139008356642</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142398</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808911</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140561</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866206</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873107</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974043</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109608</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183905</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409397</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169991</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818061</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.13827825102</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319515</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440066</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332334</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892935</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850744</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563556</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806458</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.896613176781</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769708</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084184</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>106.0328925632535</v>
+        <v>210.3443242916665</v>
       </c>
       <c r="L12" t="n">
         <v>495.6892250946983</v>
@@ -35501,13 +35501,13 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>243.7989988974575</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>44.09163190712712</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402486</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899057</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402486</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>8.181160134949776</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367785</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
